--- a/主人公.xlsx
+++ b/主人公.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\shachiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -121,6 +121,57 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十字キーで移動</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースでジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で近距離攻撃</t>
+    <rPh sb="1" eb="4">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で遠距離攻撃</t>
+    <rPh sb="1" eb="4">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zで魂回収</t>
+    <rPh sb="2" eb="3">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -528,23 +579,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -555,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,42 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,46 +695,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,188 +1123,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K9" sqref="K9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13" t="s">
+    <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="23" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="26" t="s">
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="23" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="26" t="s">
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="30">
+      <c r="G12" s="5"/>
+      <c r="H12" s="31">
         <v>1</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="32"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="26">
+      <c r="G14" s="6"/>
+      <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:D14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
+  <mergeCells count="23">
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
@@ -1176,6 +1347,16 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:D14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/主人公.xlsx
+++ b/主人公.xlsx
@@ -156,17 +156,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>で遠距離攻撃</t>
-    <rPh sb="1" eb="4">
+    <t>Zで遠距離攻撃</t>
+    <rPh sb="2" eb="5">
       <t>エンキョリ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="5" eb="7">
       <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Zで魂回収</t>
+    <t>Xで魂回収</t>
     <rPh sb="2" eb="3">
       <t>タマシイ</t>
     </rPh>
@@ -701,98 +701,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,220 +1126,223 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
+      <selection activeCell="K11" sqref="K11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="22" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="21"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="28" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="28" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="34" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="37" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="38"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="28" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="37" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="37" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="37" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="38"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="31">
+      <c r="H12" s="23">
         <v>1</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="10">
+      <c r="H14" s="25">
         <v>1</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:D14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
@@ -1347,16 +1350,13 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:D14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
